--- a/Old/2025-536CourseSchedule.xlsx
+++ b/Old/2025-536CourseSchedule.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bbohrer\Dropbox\PC\Documents\GitHub\pl-course\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bbohrer\Dropbox\PC\Documents\GitHub\pl-course\Old\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2617C307-BBCF-43DE-93DC-AC2CC31B401C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE962B9-6A4D-44ED-A59F-5F042719809E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25440" windowHeight="15150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25080" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="536" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="87">
   <si>
     <t>Date</t>
   </si>
@@ -281,6 +281,12 @@
   </si>
   <si>
     <t>REMOTE</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Fri</t>
   </si>
 </sst>
 </file>
@@ -615,8 +621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8144DEB0-8C38-452D-8D42-359E137E414A}">
   <dimension ref="A1:P72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -706,6 +712,9 @@
       <c r="D5" t="s">
         <v>33</v>
       </c>
+      <c r="F5" t="s">
+        <v>85</v>
+      </c>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -757,6 +766,9 @@
       <c r="D9" t="s">
         <v>34</v>
       </c>
+      <c r="F9" t="s">
+        <v>85</v>
+      </c>
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -795,6 +807,9 @@
       <c r="D12" t="s">
         <v>35</v>
       </c>
+      <c r="F12" t="s">
+        <v>85</v>
+      </c>
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -897,6 +912,9 @@
       <c r="D20" t="s">
         <v>36</v>
       </c>
+      <c r="F20" t="s">
+        <v>86</v>
+      </c>
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
@@ -944,6 +962,9 @@
       </c>
       <c r="D24" t="s">
         <v>37</v>
+      </c>
+      <c r="F24" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">

--- a/Old/2025-536CourseSchedule.xlsx
+++ b/Old/2025-536CourseSchedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bbohrer\Dropbox\PC\Documents\GitHub\pl-course\Old\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE962B9-6A4D-44ED-A59F-5F042719809E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{767425C7-DC88-4820-AA3A-3758A965D744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25080" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="536" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="87">
   <si>
     <t>Date</t>
   </si>
@@ -283,10 +283,10 @@
     <t>REMOTE</t>
   </si>
   <si>
-    <t>Tuesday</t>
-  </si>
-  <si>
-    <t>Fri</t>
+    <t>AWAY - CHI</t>
+  </si>
+  <si>
+    <t>Here</t>
   </si>
 </sst>
 </file>
@@ -622,7 +622,7 @@
   <dimension ref="A1:P72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -712,9 +712,6 @@
       <c r="D5" t="s">
         <v>33</v>
       </c>
-      <c r="F5" t="s">
-        <v>85</v>
-      </c>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -766,9 +763,6 @@
       <c r="D9" t="s">
         <v>34</v>
       </c>
-      <c r="F9" t="s">
-        <v>85</v>
-      </c>
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -807,9 +801,6 @@
       <c r="D12" t="s">
         <v>35</v>
       </c>
-      <c r="F12" t="s">
-        <v>85</v>
-      </c>
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -912,9 +903,6 @@
       <c r="D20" t="s">
         <v>36</v>
       </c>
-      <c r="F20" t="s">
-        <v>86</v>
-      </c>
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
@@ -963,9 +951,6 @@
       <c r="D24" t="s">
         <v>37</v>
       </c>
-      <c r="F24" t="s">
-        <v>86</v>
-      </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25">
@@ -989,7 +974,7 @@
         <v>45411</v>
       </c>
       <c r="F26" t="s">
-        <v>8</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
@@ -1003,7 +988,7 @@
         <v>45414</v>
       </c>
       <c r="F27" t="s">
-        <v>8</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
@@ -1017,7 +1002,7 @@
         <v>45418</v>
       </c>
       <c r="F28" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
       <c r="P28" t="s">
         <v>2</v>
@@ -1034,7 +1019,7 @@
         <v>45419</v>
       </c>
       <c r="F29" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.25">

--- a/Old/2025-536CourseSchedule.xlsx
+++ b/Old/2025-536CourseSchedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bbohrer\Dropbox\PC\Documents\GitHub\pl-course\Old\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{767425C7-DC88-4820-AA3A-3758A965D744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C85EC2B4-EA6F-481A-8CF3-6E6F382C9240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25080" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="536" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="92">
   <si>
     <t>Date</t>
   </si>
@@ -274,12 +274,6 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>Tuesday+Friday</t>
-  </si>
-  <si>
-    <t>4 520 higgins 114</t>
-  </si>
-  <si>
     <t>REMOTE</t>
   </si>
   <si>
@@ -287,6 +281,27 @@
   </si>
   <si>
     <t>Here</t>
+  </si>
+  <si>
+    <t>Make-up schedule</t>
+  </si>
+  <si>
+    <t>WHW4</t>
+  </si>
+  <si>
+    <t>HW1</t>
+  </si>
+  <si>
+    <t>HW2</t>
+  </si>
+  <si>
+    <t>HW5</t>
+  </si>
+  <si>
+    <t>PHW4</t>
+  </si>
+  <si>
+    <t>HW3</t>
   </si>
 </sst>
 </file>
@@ -310,12 +325,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -331,13 +352,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -622,7 +645,7 @@
   <dimension ref="A1:P72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -633,9 +656,10 @@
     <col min="4" max="4" width="5.28515625" customWidth="1"/>
     <col min="5" max="5" width="9.42578125" customWidth="1"/>
     <col min="6" max="6" width="20.7109375" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -655,13 +679,10 @@
         <v>81</v>
       </c>
       <c r="G1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -675,7 +696,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -687,7 +708,7 @@
       </c>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -699,7 +720,7 @@
       </c>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -714,7 +735,7 @@
       </c>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -726,7 +747,7 @@
       </c>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -738,7 +759,7 @@
       </c>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -750,7 +771,7 @@
       </c>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -765,7 +786,7 @@
       </c>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -777,18 +798,20 @@
       </c>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="5">
         <v>45343</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -803,7 +826,7 @@
       </c>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -813,8 +836,11 @@
       <c r="C13" s="1">
         <v>45350</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -825,10 +851,10 @@
         <v>45355</v>
       </c>
       <c r="F14" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -839,11 +865,11 @@
         <v>45358</v>
       </c>
       <c r="F15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -854,7 +880,7 @@
         <v>45369</v>
       </c>
       <c r="F16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
@@ -867,6 +893,9 @@
       <c r="C17" s="1">
         <v>45372</v>
       </c>
+      <c r="G17" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18">
@@ -915,15 +944,18 @@
       <c r="C21" s="1">
         <v>45390</v>
       </c>
+      <c r="G21" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="A22" s="4">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="5">
         <v>45393</v>
       </c>
     </row>
@@ -937,6 +969,9 @@
       <c r="C23" s="1">
         <v>45397</v>
       </c>
+      <c r="G23" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24">
@@ -951,6 +986,9 @@
       <c r="D24" t="s">
         <v>37</v>
       </c>
+      <c r="G24" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25">
@@ -974,7 +1012,7 @@
         <v>45411</v>
       </c>
       <c r="F26" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
@@ -988,7 +1026,10 @@
         <v>45414</v>
       </c>
       <c r="F27" t="s">
-        <v>85</v>
+        <v>83</v>
+      </c>
+      <c r="G27" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
@@ -1002,7 +1043,7 @@
         <v>45418</v>
       </c>
       <c r="F28" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="P28" t="s">
         <v>2</v>
@@ -1019,7 +1060,7 @@
         <v>45419</v>
       </c>
       <c r="F29" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.25">
